--- a/test/adaptive/results/score_ragas_adaptive_20241226185311_vdb1000200_optimization.xlsx
+++ b/test/adaptive/results/score_ragas_adaptive_20241226185311_vdb1000200_optimization.xlsx
@@ -1,15 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion rupBuild="9303" lowestEdited="5" lastEdited="5" appName="xl"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28227"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Features\Documents\PMB-UNDIKSHA\va-pmb-undiksha\test\adaptive\results\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFB089E9-6F05-4AF6-ABBD-BD6684F3AABB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="0"/>
+    <workbookView xWindow="-105" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet r:id="rId1" sheetId="1" name="Evaluation"/>
+    <sheet name="Evaluation" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
@@ -947,8 +953,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
-  <numFmts count="0"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1013,41 +1018,37 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+  <cellXfs count="8">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="4" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
-    </xf>
-    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="4" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
-    </xf>
-    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" builtinId="0" name="Normal"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
-    <ext uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14ac:slicerStyles xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" defaultSlicerStyle="SlicerStyleLight1"/>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1058,10 +1059,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr lastClr="000000" val="windowText"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr lastClr="FFFFFF" val="window"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -1099,71 +1100,71 @@
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
-        <a:font typeface="맑은 고딕" script="Hang"/>
-        <a:font typeface="宋体" script="Hans"/>
-        <a:font typeface="新細明體" script="Hant"/>
-        <a:font typeface="Times New Roman" script="Arab"/>
-        <a:font typeface="Times New Roman" script="Hebr"/>
-        <a:font typeface="Tahoma" script="Thai"/>
-        <a:font typeface="Nyala" script="Ethi"/>
-        <a:font typeface="Vrinda" script="Beng"/>
-        <a:font typeface="Shruti" script="Gujr"/>
-        <a:font typeface="MoolBoran" script="Khmr"/>
-        <a:font typeface="Tunga" script="Knda"/>
-        <a:font typeface="Raavi" script="Guru"/>
-        <a:font typeface="Euphemia" script="Cans"/>
-        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
-        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
-        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
-        <a:font typeface="MV Boli" script="Thaa"/>
-        <a:font typeface="Mangal" script="Deva"/>
-        <a:font typeface="Gautami" script="Telu"/>
-        <a:font typeface="Latha" script="Taml"/>
-        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
-        <a:font typeface="Kalinga" script="Orya"/>
-        <a:font typeface="Kartika" script="Mlym"/>
-        <a:font typeface="DokChampa" script="Laoo"/>
-        <a:font typeface="Iskoola Pota" script="Sinh"/>
-        <a:font typeface="Mongolian Baiti" script="Mong"/>
-        <a:font typeface="Times New Roman" script="Viet"/>
-        <a:font typeface="Microsoft Uighur" script="Uigh"/>
-        <a:font typeface="Sylfaen" script="Geor"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
-        <a:font typeface="맑은 고딕" script="Hang"/>
-        <a:font typeface="宋体" script="Hans"/>
-        <a:font typeface="新細明體" script="Hant"/>
-        <a:font typeface="Arial" script="Arab"/>
-        <a:font typeface="Arial" script="Hebr"/>
-        <a:font typeface="Tahoma" script="Thai"/>
-        <a:font typeface="Nyala" script="Ethi"/>
-        <a:font typeface="Vrinda" script="Beng"/>
-        <a:font typeface="Shruti" script="Gujr"/>
-        <a:font typeface="DaunPenh" script="Khmr"/>
-        <a:font typeface="Tunga" script="Knda"/>
-        <a:font typeface="Raavi" script="Guru"/>
-        <a:font typeface="Euphemia" script="Cans"/>
-        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
-        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
-        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
-        <a:font typeface="MV Boli" script="Thaa"/>
-        <a:font typeface="Mangal" script="Deva"/>
-        <a:font typeface="Gautami" script="Telu"/>
-        <a:font typeface="Latha" script="Taml"/>
-        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
-        <a:font typeface="Kalinga" script="Orya"/>
-        <a:font typeface="Kartika" script="Mlym"/>
-        <a:font typeface="DokChampa" script="Laoo"/>
-        <a:font typeface="Iskoola Pota" script="Sinh"/>
-        <a:font typeface="Mongolian Baiti" script="Mong"/>
-        <a:font typeface="Arial" script="Viet"/>
-        <a:font typeface="Microsoft Uighur" script="Uigh"/>
-        <a:font typeface="Sylfaen" script="Geor"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1191,7 +1192,7 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin scaled="1" ang="16200000"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
@@ -1214,11 +1215,11 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin scaled="1" ang="16200000"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="9525">
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr">
               <a:shade val="9500"/>
@@ -1227,13 +1228,13 @@
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="25400">
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="38100">
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -1243,7 +1244,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -1252,7 +1253,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -1261,7 +1262,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -1269,10 +1270,10 @@
           </a:effectLst>
           <a:scene3d>
             <a:camera prst="orthographicFront">
-              <a:rot rev="0" lon="0" lat="0"/>
+              <a:rot lat="0" lon="0" rev="0"/>
             </a:camera>
-            <a:lightRig dir="t" rig="threePt">
-              <a:rot rev="1200000" lon="0" lat="0"/>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
             </a:lightRig>
           </a:scene3d>
           <a:sp3d>
@@ -1337,28 +1338,23 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
   <dimension ref="A1:I53"/>
   <sheetViews>
-    <sheetView workbookViewId="0" tabSelected="1"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="I56" sqref="I56"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="7" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="7" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="7" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="7" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="8" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="8" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="7" max="7" style="8" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="8" max="8" style="8" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="9" max="9" style="8" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="1" max="4" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="9" width="13.5703125" style="5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="20.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1387,1488 +1383,1477 @@
         <v>8</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="197.25">
-      <c r="A2" s="3" t="s">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="E2" s="4">
-        <v>0.9999999999</v>
-      </c>
-      <c r="F2" s="4">
-        <v>0.8181818181818182</v>
-      </c>
-      <c r="G2" s="5">
-        <v>1</v>
-      </c>
-      <c r="H2" s="4">
+      <c r="E2" s="3">
+        <v>0.99999999989999999</v>
+      </c>
+      <c r="F2" s="3">
+        <v>0.81818181818181823</v>
+      </c>
+      <c r="G2" s="4">
+        <v>1</v>
+      </c>
+      <c r="H2" s="3">
         <v>0.8826535253792841</v>
       </c>
-      <c r="I2" s="4">
-        <v>0.9252088358652756</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="171.75">
-      <c r="A3" s="3" t="s">
+      <c r="I2" s="3">
+        <v>0.92520883586527558</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D3" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="E3" s="4">
-        <v>0.9999999999</v>
-      </c>
-      <c r="F3" s="5">
-        <v>1</v>
-      </c>
-      <c r="G3" s="5">
-        <v>1</v>
-      </c>
-      <c r="H3" s="4">
-        <v>0.9258262134765108</v>
-      </c>
-      <c r="I3" s="4">
-        <v>0.9814565533441277</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="44.25">
-      <c r="A4" s="3" t="s">
+      <c r="E3" s="3">
+        <v>0.99999999989999999</v>
+      </c>
+      <c r="F3" s="4">
+        <v>1</v>
+      </c>
+      <c r="G3" s="4">
+        <v>1</v>
+      </c>
+      <c r="H3" s="3">
+        <v>0.92582621347651084</v>
+      </c>
+      <c r="I3" s="3">
+        <v>0.98145655334412774</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="D4" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="E4" s="4">
-        <v>0.9999999999</v>
-      </c>
-      <c r="F4" s="4">
+      <c r="E4" s="3">
+        <v>0.99999999989999999</v>
+      </c>
+      <c r="F4" s="3">
         <v>0.5</v>
       </c>
-      <c r="G4" s="5">
-        <v>1</v>
-      </c>
-      <c r="H4" s="4">
-        <v>0.8949485996578921</v>
-      </c>
-      <c r="I4" s="4">
-        <v>0.848737149889473</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="44.25">
-      <c r="A5" s="3" t="s">
+      <c r="G4" s="4">
+        <v>1</v>
+      </c>
+      <c r="H4" s="3">
+        <v>0.89494859965789209</v>
+      </c>
+      <c r="I4" s="3">
+        <v>0.84873714988947302</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="C5" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="D5" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="E5" s="4">
-        <v>0.9999999999</v>
-      </c>
-      <c r="F5" s="5">
-        <v>1</v>
-      </c>
-      <c r="G5" s="5">
-        <v>1</v>
-      </c>
-      <c r="H5" s="4">
-        <v>0.8731718592731655</v>
-      </c>
-      <c r="I5" s="4">
-        <v>0.9682929647932914</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="120.75">
-      <c r="A6" s="3" t="s">
+      <c r="E5" s="3">
+        <v>0.99999999989999999</v>
+      </c>
+      <c r="F5" s="4">
+        <v>1</v>
+      </c>
+      <c r="G5" s="4">
+        <v>1</v>
+      </c>
+      <c r="H5" s="3">
+        <v>0.87317185927316554</v>
+      </c>
+      <c r="I5" s="3">
+        <v>0.96829296479329141</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="C6" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="D6" s="3" t="s">
+      <c r="D6" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="E6" s="4">
-        <v>0.9999999999</v>
-      </c>
-      <c r="F6" s="5">
-        <v>1</v>
-      </c>
-      <c r="G6" s="5">
-        <v>1</v>
-      </c>
-      <c r="H6" s="4">
-        <v>0.8801839393933357</v>
-      </c>
-      <c r="I6" s="4">
-        <v>0.9700459848233339</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="44.25">
-      <c r="A7" s="3" t="s">
+      <c r="E6" s="3">
+        <v>0.99999999989999999</v>
+      </c>
+      <c r="F6" s="4">
+        <v>1</v>
+      </c>
+      <c r="G6" s="4">
+        <v>1</v>
+      </c>
+      <c r="H6" s="3">
+        <v>0.88018393939333572</v>
+      </c>
+      <c r="I6" s="3">
+        <v>0.97004598482333393</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="B7" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="C7" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="D7" s="3" t="s">
+      <c r="D7" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="E7" s="5">
+      <c r="E7" s="4">
         <v>0</v>
       </c>
-      <c r="F7" s="5">
+      <c r="F7" s="4">
         <v>0</v>
       </c>
-      <c r="G7" s="5">
-        <v>1</v>
-      </c>
-      <c r="H7" s="5">
+      <c r="G7" s="4">
+        <v>1</v>
+      </c>
+      <c r="H7" s="4">
         <v>0</v>
       </c>
-      <c r="I7" s="4">
+      <c r="I7" s="3">
         <v>0.25</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="261">
-      <c r="A8" s="3" t="s">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="B8" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="C8" s="3" t="s">
+      <c r="C8" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="D8" s="3" t="s">
+      <c r="D8" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="E8" s="4">
-        <v>0.9999999999</v>
-      </c>
-      <c r="F8" s="4">
+      <c r="E8" s="3">
+        <v>0.99999999989999999</v>
+      </c>
+      <c r="F8" s="3">
         <v>0.9375</v>
       </c>
-      <c r="G8" s="5">
-        <v>1</v>
-      </c>
-      <c r="H8" s="4">
-        <v>0.8774347976430246</v>
-      </c>
-      <c r="I8" s="4">
-        <v>0.9537336993857561</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="44.25">
-      <c r="A9" s="3" t="s">
+      <c r="G8" s="4">
+        <v>1</v>
+      </c>
+      <c r="H8" s="3">
+        <v>0.87743479764302457</v>
+      </c>
+      <c r="I8" s="3">
+        <v>0.95373369938575614</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="B9" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="C9" s="3" t="s">
+      <c r="C9" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="D9" s="3" t="s">
+      <c r="D9" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="E9" s="4">
-        <v>0.9999999999</v>
-      </c>
-      <c r="F9" s="5">
-        <v>1</v>
-      </c>
-      <c r="G9" s="5">
-        <v>1</v>
-      </c>
-      <c r="H9" s="4">
-        <v>0.8545232366259855</v>
-      </c>
-      <c r="I9" s="4">
-        <v>0.9636308091314963</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="44.25">
-      <c r="A10" s="3" t="s">
+      <c r="E9" s="3">
+        <v>0.99999999989999999</v>
+      </c>
+      <c r="F9" s="4">
+        <v>1</v>
+      </c>
+      <c r="G9" s="4">
+        <v>1</v>
+      </c>
+      <c r="H9" s="3">
+        <v>0.85452323662598551</v>
+      </c>
+      <c r="I9" s="3">
+        <v>0.96363080913149635</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="B10" s="3" t="s">
+      <c r="B10" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="C10" s="3" t="s">
+      <c r="C10" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="D10" s="3" t="s">
+      <c r="D10" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="E10" s="4">
-        <v>0.9999999999</v>
-      </c>
-      <c r="F10" s="5">
-        <v>1</v>
-      </c>
-      <c r="G10" s="5">
-        <v>1</v>
-      </c>
-      <c r="H10" s="4">
-        <v>0.910300409089277</v>
-      </c>
-      <c r="I10" s="4">
-        <v>0.9775751022473192</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="503.25">
-      <c r="A11" s="3" t="s">
+      <c r="E10" s="3">
+        <v>0.99999999989999999</v>
+      </c>
+      <c r="F10" s="4">
+        <v>1</v>
+      </c>
+      <c r="G10" s="4">
+        <v>1</v>
+      </c>
+      <c r="H10" s="3">
+        <v>0.91030040908927701</v>
+      </c>
+      <c r="I10" s="3">
+        <v>0.97757510224731925</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="B11" s="3" t="s">
+      <c r="B11" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="C11" s="3" t="s">
+      <c r="C11" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="D11" s="3" t="s">
+      <c r="D11" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="E11" s="4">
-        <v>0.9999999999</v>
-      </c>
-      <c r="F11" s="4">
-        <v>0.8333333333333334</v>
-      </c>
-      <c r="G11" s="4">
-        <v>0.8823529411764706</v>
-      </c>
-      <c r="H11" s="4">
-        <v>0.864942301141002</v>
-      </c>
-      <c r="I11" s="4">
-        <v>0.8951571438877015</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="44.25">
-      <c r="A12" s="3" t="s">
+      <c r="E11" s="3">
+        <v>0.99999999989999999</v>
+      </c>
+      <c r="F11" s="3">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="G11" s="3">
+        <v>0.88235294117647056</v>
+      </c>
+      <c r="H11" s="3">
+        <v>0.86494230114100201</v>
+      </c>
+      <c r="I11" s="3">
+        <v>0.89515714388770151</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="B12" s="3" t="s">
+      <c r="B12" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="C12" s="3" t="s">
+      <c r="C12" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="D12" s="3" t="s">
+      <c r="D12" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="E12" s="4">
-        <v>0.9999999999</v>
-      </c>
-      <c r="F12" s="5">
-        <v>1</v>
-      </c>
-      <c r="G12" s="4">
+      <c r="E12" s="3">
+        <v>0.99999999989999999</v>
+      </c>
+      <c r="F12" s="4">
+        <v>1</v>
+      </c>
+      <c r="G12" s="3">
         <v>0.5</v>
       </c>
-      <c r="H12" s="4">
-        <v>0.896001745909297</v>
-      </c>
-      <c r="I12" s="4">
-        <v>0.8490004364523243</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="44.25">
-      <c r="A13" s="3" t="s">
+      <c r="H12" s="3">
+        <v>0.89600174590929704</v>
+      </c>
+      <c r="I12" s="3">
+        <v>0.84900043645232426</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="B13" s="3" t="s">
+      <c r="B13" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="C13" s="3" t="s">
+      <c r="C13" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="D13" s="3" t="s">
+      <c r="D13" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="E13" s="5">
+      <c r="E13" s="4">
         <v>0</v>
       </c>
-      <c r="F13" s="5">
+      <c r="F13" s="4">
         <v>0</v>
       </c>
-      <c r="G13" s="5">
-        <v>1</v>
-      </c>
-      <c r="H13" s="5">
+      <c r="G13" s="4">
+        <v>1</v>
+      </c>
+      <c r="H13" s="4">
         <v>0</v>
       </c>
-      <c r="I13" s="4">
+      <c r="I13" s="3">
         <v>0.25</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="248.25">
-      <c r="A14" s="3" t="s">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="B14" s="3" t="s">
+      <c r="B14" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="C14" s="3" t="s">
+      <c r="C14" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="D14" s="3" t="s">
+      <c r="D14" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="E14" s="4">
-        <v>0.9999999999</v>
-      </c>
-      <c r="F14" s="5">
-        <v>1</v>
-      </c>
-      <c r="G14" s="5">
-        <v>1</v>
-      </c>
-      <c r="H14" s="4">
-        <v>0.8422888441067911</v>
-      </c>
-      <c r="I14" s="4">
-        <v>0.9605722110016978</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="44.25">
-      <c r="A15" s="3" t="s">
+      <c r="E14" s="3">
+        <v>0.99999999989999999</v>
+      </c>
+      <c r="F14" s="4">
+        <v>1</v>
+      </c>
+      <c r="G14" s="4">
+        <v>1</v>
+      </c>
+      <c r="H14" s="3">
+        <v>0.84228884410679106</v>
+      </c>
+      <c r="I14" s="3">
+        <v>0.96057221100169776</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="B15" s="3" t="s">
+      <c r="B15" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="C15" s="3" t="s">
+      <c r="C15" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="D15" s="3" t="s">
+      <c r="D15" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="E15" s="4">
-        <v>0.9999999999</v>
-      </c>
-      <c r="F15" s="5">
-        <v>1</v>
-      </c>
-      <c r="G15" s="5">
-        <v>1</v>
-      </c>
-      <c r="H15" s="4">
-        <v>0.9157228944474533</v>
-      </c>
-      <c r="I15" s="4">
-        <v>0.9789307235868633</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="44.25">
-      <c r="A16" s="3" t="s">
+      <c r="E15" s="3">
+        <v>0.99999999989999999</v>
+      </c>
+      <c r="F15" s="4">
+        <v>1</v>
+      </c>
+      <c r="G15" s="4">
+        <v>1</v>
+      </c>
+      <c r="H15" s="3">
+        <v>0.91572289444745325</v>
+      </c>
+      <c r="I15" s="3">
+        <v>0.97893072358686328</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="B16" s="3" t="s">
+      <c r="B16" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="C16" s="3" t="s">
+      <c r="C16" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="D16" s="3" t="s">
+      <c r="D16" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="E16" s="4">
-        <v>0.9999999999</v>
-      </c>
-      <c r="F16" s="5">
-        <v>1</v>
-      </c>
-      <c r="G16" s="4">
+      <c r="E16" s="3">
+        <v>0.99999999989999999</v>
+      </c>
+      <c r="F16" s="4">
+        <v>1</v>
+      </c>
+      <c r="G16" s="3">
         <v>0.5</v>
       </c>
-      <c r="H16" s="4">
-        <v>0.8844306330813089</v>
-      </c>
-      <c r="I16" s="4">
-        <v>0.8461076582453272</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="44.25">
-      <c r="A17" s="3" t="s">
+      <c r="H16" s="3">
+        <v>0.88443063308130887</v>
+      </c>
+      <c r="I16" s="3">
+        <v>0.84610765824532719</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A17" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="B17" s="3" t="s">
+      <c r="B17" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="C17" s="3" t="s">
+      <c r="C17" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="D17" s="3" t="s">
+      <c r="D17" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="E17" s="4">
-        <v>0.9999999999</v>
-      </c>
-      <c r="F17" s="5">
-        <v>1</v>
-      </c>
-      <c r="G17" s="5">
-        <v>1</v>
-      </c>
-      <c r="H17" s="4">
-        <v>0.9330309089446568</v>
-      </c>
-      <c r="I17" s="4">
-        <v>0.9832577272111642</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="44.25">
-      <c r="A18" s="3" t="s">
+      <c r="E17" s="3">
+        <v>0.99999999989999999</v>
+      </c>
+      <c r="F17" s="4">
+        <v>1</v>
+      </c>
+      <c r="G17" s="4">
+        <v>1</v>
+      </c>
+      <c r="H17" s="3">
+        <v>0.93303090894465679</v>
+      </c>
+      <c r="I17" s="3">
+        <v>0.98325772721116422</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A18" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="B18" s="3" t="s">
+      <c r="B18" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="C18" s="3" t="s">
+      <c r="C18" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="D18" s="3" t="s">
+      <c r="D18" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="E18" s="4">
-        <v>0.9999999999</v>
-      </c>
-      <c r="F18" s="5">
-        <v>1</v>
-      </c>
-      <c r="G18" s="5">
-        <v>1</v>
-      </c>
-      <c r="H18" s="4">
-        <v>0.9466255387648529</v>
-      </c>
-      <c r="I18" s="4">
-        <v>0.9866563846662132</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="18.75">
-      <c r="A19" s="3" t="s">
+      <c r="E18" s="3">
+        <v>0.99999999989999999</v>
+      </c>
+      <c r="F18" s="4">
+        <v>1</v>
+      </c>
+      <c r="G18" s="4">
+        <v>1</v>
+      </c>
+      <c r="H18" s="3">
+        <v>0.94662553876485289</v>
+      </c>
+      <c r="I18" s="3">
+        <v>0.98665638466621319</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A19" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="B19" s="3" t="s">
+      <c r="B19" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="C19" s="3" t="s">
+      <c r="C19" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="D19" s="3" t="s">
+      <c r="D19" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="E19" s="4">
-        <v>0.9999999999</v>
-      </c>
-      <c r="F19" s="5">
-        <v>1</v>
-      </c>
-      <c r="G19" s="5">
-        <v>1</v>
-      </c>
-      <c r="H19" s="4">
-        <v>0.8910520927733142</v>
-      </c>
-      <c r="I19" s="4">
-        <v>0.9727630231683285</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="18.75">
-      <c r="A20" s="3" t="s">
+      <c r="E19" s="3">
+        <v>0.99999999989999999</v>
+      </c>
+      <c r="F19" s="4">
+        <v>1</v>
+      </c>
+      <c r="G19" s="4">
+        <v>1</v>
+      </c>
+      <c r="H19" s="3">
+        <v>0.89105209277331421</v>
+      </c>
+      <c r="I19" s="3">
+        <v>0.97276302316832852</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A20" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="B20" s="3" t="s">
+      <c r="B20" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="C20" s="3" t="s">
+      <c r="C20" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="D20" s="3" t="s">
+      <c r="D20" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="E20" s="4">
-        <v>0.9999999999</v>
-      </c>
-      <c r="F20" s="5">
-        <v>1</v>
-      </c>
-      <c r="G20" s="5">
-        <v>1</v>
-      </c>
-      <c r="H20" s="4">
-        <v>0.8774408239401268</v>
-      </c>
-      <c r="I20" s="4">
+      <c r="E20" s="3">
+        <v>0.99999999989999999</v>
+      </c>
+      <c r="F20" s="4">
+        <v>1</v>
+      </c>
+      <c r="G20" s="4">
+        <v>1</v>
+      </c>
+      <c r="H20" s="3">
+        <v>0.87744082394012679</v>
+      </c>
+      <c r="I20" s="3">
         <v>0.9693602059600317</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="18.75">
-      <c r="A21" s="3" t="s">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A21" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="B21" s="3" t="s">
+      <c r="B21" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="C21" s="3" t="s">
+      <c r="C21" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="D21" s="3" t="s">
+      <c r="D21" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="E21" s="4">
-        <v>0.9999999999</v>
-      </c>
-      <c r="F21" s="5">
-        <v>1</v>
-      </c>
-      <c r="G21" s="4">
+      <c r="E21" s="3">
+        <v>0.99999999989999999</v>
+      </c>
+      <c r="F21" s="4">
+        <v>1</v>
+      </c>
+      <c r="G21" s="3">
         <v>0.5</v>
       </c>
-      <c r="H21" s="4">
-        <v>0.9345972679555867</v>
-      </c>
-      <c r="I21" s="4">
-        <v>0.8586493169638967</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="18.75">
-      <c r="A22" s="3" t="s">
+      <c r="H21" s="3">
+        <v>0.93459726795558673</v>
+      </c>
+      <c r="I21" s="3">
+        <v>0.85864931696389668</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A22" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="B22" s="3" t="s">
+      <c r="B22" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="C22" s="3" t="s">
+      <c r="C22" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="D22" s="3" t="s">
+      <c r="D22" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="E22" s="4">
-        <v>0.9999999999</v>
-      </c>
-      <c r="F22" s="5">
-        <v>1</v>
-      </c>
-      <c r="G22" s="5">
-        <v>1</v>
-      </c>
-      <c r="H22" s="4">
-        <v>0.9178310373128912</v>
-      </c>
-      <c r="I22" s="4">
-        <v>0.9794577593032228</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="18.75">
-      <c r="A23" s="3" t="s">
+      <c r="E22" s="3">
+        <v>0.99999999989999999</v>
+      </c>
+      <c r="F22" s="4">
+        <v>1</v>
+      </c>
+      <c r="G22" s="4">
+        <v>1</v>
+      </c>
+      <c r="H22" s="3">
+        <v>0.91783103731289117</v>
+      </c>
+      <c r="I22" s="3">
+        <v>0.97945775930322276</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A23" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="B23" s="3" t="s">
+      <c r="B23" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="C23" s="3" t="s">
+      <c r="C23" s="7" t="s">
         <v>86</v>
       </c>
-      <c r="D23" s="3" t="s">
+      <c r="D23" s="7" t="s">
         <v>86</v>
       </c>
-      <c r="E23" s="4">
-        <v>0.9999999999</v>
-      </c>
-      <c r="F23" s="5">
-        <v>1</v>
-      </c>
-      <c r="G23" s="5">
-        <v>1</v>
-      </c>
-      <c r="H23" s="4">
-        <v>0.8807801562443022</v>
-      </c>
-      <c r="I23" s="4">
-        <v>0.9701950390360755</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="18.75">
-      <c r="A24" s="3" t="s">
+      <c r="E23" s="3">
+        <v>0.99999999989999999</v>
+      </c>
+      <c r="F23" s="4">
+        <v>1</v>
+      </c>
+      <c r="G23" s="4">
+        <v>1</v>
+      </c>
+      <c r="H23" s="3">
+        <v>0.88078015624430217</v>
+      </c>
+      <c r="I23" s="3">
+        <v>0.97019503903607551</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A24" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="B24" s="3" t="s">
+      <c r="B24" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="C24" s="3" t="s">
+      <c r="C24" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="D24" s="3" t="s">
+      <c r="D24" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="E24" s="4">
-        <v>0.9999999999</v>
-      </c>
-      <c r="F24" s="5">
-        <v>1</v>
-      </c>
-      <c r="G24" s="5">
-        <v>1</v>
-      </c>
-      <c r="H24" s="4">
-        <v>0.9455265265255962</v>
-      </c>
-      <c r="I24" s="4">
-        <v>0.986381631606399</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="18.75">
-      <c r="A25" s="3" t="s">
+      <c r="E24" s="3">
+        <v>0.99999999989999999</v>
+      </c>
+      <c r="F24" s="4">
+        <v>1</v>
+      </c>
+      <c r="G24" s="4">
+        <v>1</v>
+      </c>
+      <c r="H24" s="3">
+        <v>0.94552652652559621</v>
+      </c>
+      <c r="I24" s="3">
+        <v>0.98638163160639902</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A25" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="B25" s="3" t="s">
+      <c r="B25" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="C25" s="3" t="s">
+      <c r="C25" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="D25" s="3" t="s">
+      <c r="D25" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="E25" s="4">
-        <v>0.9999999999</v>
-      </c>
-      <c r="F25" s="5">
-        <v>1</v>
-      </c>
-      <c r="G25" s="5">
-        <v>1</v>
-      </c>
-      <c r="H25" s="4">
-        <v>0.8791203348475</v>
-      </c>
-      <c r="I25" s="4">
-        <v>0.969780083686875</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="18.75">
-      <c r="A26" s="3" t="s">
+      <c r="E25" s="3">
+        <v>0.99999999989999999</v>
+      </c>
+      <c r="F25" s="4">
+        <v>1</v>
+      </c>
+      <c r="G25" s="4">
+        <v>1</v>
+      </c>
+      <c r="H25" s="3">
+        <v>0.87912033484749996</v>
+      </c>
+      <c r="I25" s="3">
+        <v>0.96978008368687496</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A26" s="7" t="s">
         <v>93</v>
       </c>
-      <c r="B26" s="3" t="s">
+      <c r="B26" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="C26" s="3" t="s">
+      <c r="C26" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="D26" s="3" t="s">
+      <c r="D26" s="7" t="s">
         <v>96</v>
       </c>
-      <c r="E26" s="4">
-        <v>0.9999999999</v>
-      </c>
-      <c r="F26" s="5">
-        <v>1</v>
-      </c>
-      <c r="G26" s="5">
-        <v>1</v>
-      </c>
-      <c r="H26" s="4">
-        <v>0.8692566917842486</v>
-      </c>
-      <c r="I26" s="4">
-        <v>0.9673141729210621</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="18.75">
-      <c r="A27" s="3" t="s">
+      <c r="E26" s="3">
+        <v>0.99999999989999999</v>
+      </c>
+      <c r="F26" s="4">
+        <v>1</v>
+      </c>
+      <c r="G26" s="4">
+        <v>1</v>
+      </c>
+      <c r="H26" s="3">
+        <v>0.86925669178424858</v>
+      </c>
+      <c r="I26" s="3">
+        <v>0.96731417292106214</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A27" s="7" t="s">
         <v>97</v>
       </c>
-      <c r="B27" s="3" t="s">
+      <c r="B27" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="C27" s="3" t="s">
+      <c r="C27" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="D27" s="3" t="s">
+      <c r="D27" s="7" t="s">
         <v>100</v>
       </c>
-      <c r="E27" s="4">
-        <v>0.9999999999</v>
-      </c>
-      <c r="F27" s="5">
-        <v>1</v>
-      </c>
-      <c r="G27" s="5">
-        <v>1</v>
-      </c>
-      <c r="H27" s="4">
-        <v>0.8866547060123562</v>
-      </c>
-      <c r="I27" s="4">
-        <v>0.971663676478089</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="18.75">
-      <c r="A28" s="3" t="s">
+      <c r="E27" s="3">
+        <v>0.99999999989999999</v>
+      </c>
+      <c r="F27" s="4">
+        <v>1</v>
+      </c>
+      <c r="G27" s="4">
+        <v>1</v>
+      </c>
+      <c r="H27" s="3">
+        <v>0.88665470601235619</v>
+      </c>
+      <c r="I27" s="3">
+        <v>0.97166367647808904</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A28" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="B28" s="3" t="s">
+      <c r="B28" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="C28" s="3" t="s">
+      <c r="C28" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="D28" s="3" t="s">
+      <c r="D28" s="7" t="s">
         <v>104</v>
       </c>
-      <c r="E28" s="4">
-        <v>0.9999999999</v>
-      </c>
-      <c r="F28" s="5">
-        <v>1</v>
-      </c>
-      <c r="G28" s="5">
-        <v>1</v>
-      </c>
-      <c r="H28" s="4">
-        <v>0.9463828934897797</v>
-      </c>
-      <c r="I28" s="4">
-        <v>0.9865957233474449</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="18.75">
-      <c r="A29" s="3" t="s">
+      <c r="E28" s="3">
+        <v>0.99999999989999999</v>
+      </c>
+      <c r="F28" s="4">
+        <v>1</v>
+      </c>
+      <c r="G28" s="4">
+        <v>1</v>
+      </c>
+      <c r="H28" s="3">
+        <v>0.94638289348977966</v>
+      </c>
+      <c r="I28" s="3">
+        <v>0.98659572334744494</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A29" s="7" t="s">
         <v>105</v>
       </c>
-      <c r="B29" s="3" t="s">
+      <c r="B29" s="7" t="s">
         <v>106</v>
       </c>
-      <c r="C29" s="3" t="s">
+      <c r="C29" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="D29" s="3" t="s">
+      <c r="D29" s="7" t="s">
         <v>108</v>
       </c>
-      <c r="E29" s="4">
-        <v>0.9999999999</v>
-      </c>
-      <c r="F29" s="5">
-        <v>1</v>
-      </c>
-      <c r="G29" s="5">
-        <v>1</v>
-      </c>
-      <c r="H29" s="4">
-        <v>0.9304482439057717</v>
-      </c>
-      <c r="I29" s="4">
-        <v>0.9826120609514429</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="18.75">
-      <c r="A30" s="3" t="s">
+      <c r="E29" s="3">
+        <v>0.99999999989999999</v>
+      </c>
+      <c r="F29" s="4">
+        <v>1</v>
+      </c>
+      <c r="G29" s="4">
+        <v>1</v>
+      </c>
+      <c r="H29" s="3">
+        <v>0.93044824390577174</v>
+      </c>
+      <c r="I29" s="3">
+        <v>0.98261206095144293</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A30" s="7" t="s">
         <v>109</v>
       </c>
-      <c r="B30" s="3" t="s">
+      <c r="B30" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="C30" s="3" t="s">
+      <c r="C30" s="7" t="s">
         <v>110</v>
       </c>
-      <c r="D30" s="3" t="s">
+      <c r="D30" s="7" t="s">
         <v>111</v>
       </c>
-      <c r="E30" s="5">
+      <c r="E30" s="4">
         <v>0</v>
       </c>
-      <c r="F30" s="5">
+      <c r="F30" s="4">
         <v>0</v>
       </c>
-      <c r="G30" s="5">
-        <v>1</v>
-      </c>
-      <c r="H30" s="5">
+      <c r="G30" s="4">
+        <v>1</v>
+      </c>
+      <c r="H30" s="4">
         <v>0</v>
       </c>
-      <c r="I30" s="4">
+      <c r="I30" s="3">
         <v>0.25</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="31" customHeight="1" ht="18.75">
-      <c r="A31" s="3" t="s">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A31" s="7" t="s">
         <v>112</v>
       </c>
-      <c r="B31" s="3" t="s">
+      <c r="B31" s="7" t="s">
         <v>113</v>
       </c>
-      <c r="C31" s="3" t="s">
+      <c r="C31" s="7" t="s">
         <v>114</v>
       </c>
-      <c r="D31" s="3" t="s">
+      <c r="D31" s="7" t="s">
         <v>115</v>
       </c>
-      <c r="E31" s="4">
-        <v>0.9999999999</v>
-      </c>
-      <c r="F31" s="5">
-        <v>1</v>
-      </c>
-      <c r="G31" s="5">
-        <v>1</v>
-      </c>
-      <c r="H31" s="4">
+      <c r="E31" s="3">
+        <v>0.99999999989999999</v>
+      </c>
+      <c r="F31" s="4">
+        <v>1</v>
+      </c>
+      <c r="G31" s="4">
+        <v>1</v>
+      </c>
+      <c r="H31" s="3">
         <v>0.8525427503541968</v>
       </c>
-      <c r="I31" s="4">
-        <v>0.9631356875635492</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="32" customHeight="1" ht="18.75">
-      <c r="A32" s="3" t="s">
+      <c r="I31" s="3">
+        <v>0.96313568756354917</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A32" s="7" t="s">
         <v>116</v>
       </c>
-      <c r="B32" s="3" t="s">
+      <c r="B32" s="7" t="s">
         <v>117</v>
       </c>
-      <c r="C32" s="3" t="s">
+      <c r="C32" s="7" t="s">
         <v>118</v>
       </c>
-      <c r="D32" s="3" t="s">
+      <c r="D32" s="7" t="s">
         <v>118</v>
       </c>
-      <c r="E32" s="4">
-        <v>0.9999999999</v>
-      </c>
-      <c r="F32" s="5">
-        <v>1</v>
-      </c>
-      <c r="G32" s="5">
-        <v>1</v>
-      </c>
-      <c r="H32" s="4">
+      <c r="E32" s="3">
+        <v>0.99999999989999999</v>
+      </c>
+      <c r="F32" s="4">
+        <v>1</v>
+      </c>
+      <c r="G32" s="4">
+        <v>1</v>
+      </c>
+      <c r="H32" s="3">
         <v>0.8977139384646623</v>
       </c>
-      <c r="I32" s="4">
+      <c r="I32" s="3">
         <v>0.9744284845911656</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="33" customHeight="1" ht="18.75">
-      <c r="A33" s="3" t="s">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A33" s="7" t="s">
         <v>119</v>
       </c>
-      <c r="B33" s="3" t="s">
+      <c r="B33" s="7" t="s">
         <v>120</v>
       </c>
-      <c r="C33" s="3" t="s">
+      <c r="C33" s="7" t="s">
         <v>121</v>
       </c>
-      <c r="D33" s="3" t="s">
+      <c r="D33" s="7" t="s">
         <v>122</v>
       </c>
-      <c r="E33" s="4">
-        <v>0.9999999999</v>
-      </c>
-      <c r="F33" s="4">
+      <c r="E33" s="3">
+        <v>0.99999999989999999</v>
+      </c>
+      <c r="F33" s="3">
         <v>0.5714285714285714</v>
       </c>
-      <c r="G33" s="5">
-        <v>1</v>
-      </c>
-      <c r="H33" s="4">
-        <v>0.9049090132202818</v>
-      </c>
-      <c r="I33" s="4">
-        <v>0.8690843961372132</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="34" customHeight="1" ht="18.75">
-      <c r="A34" s="3" t="s">
+      <c r="G33" s="4">
+        <v>1</v>
+      </c>
+      <c r="H33" s="3">
+        <v>0.90490901322028183</v>
+      </c>
+      <c r="I33" s="3">
+        <v>0.86908439613721322</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A34" s="7" t="s">
         <v>123</v>
       </c>
-      <c r="B34" s="3" t="s">
+      <c r="B34" s="7" t="s">
         <v>124</v>
       </c>
-      <c r="C34" s="3" t="s">
+      <c r="C34" s="7" t="s">
         <v>125</v>
       </c>
-      <c r="D34" s="3" t="s">
+      <c r="D34" s="7" t="s">
         <v>125</v>
       </c>
-      <c r="E34" s="4">
-        <v>0.9999999999</v>
-      </c>
-      <c r="F34" s="5">
-        <v>1</v>
-      </c>
-      <c r="G34" s="5">
-        <v>1</v>
-      </c>
-      <c r="H34" s="5">
+      <c r="E34" s="3">
+        <v>0.99999999989999999</v>
+      </c>
+      <c r="F34" s="4">
+        <v>1</v>
+      </c>
+      <c r="G34" s="4">
+        <v>1</v>
+      </c>
+      <c r="H34" s="4">
         <v>0</v>
       </c>
-      <c r="I34" s="4">
+      <c r="I34" s="3">
         <v>0.749999999975</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="35" customHeight="1" ht="18.75">
-      <c r="A35" s="3" t="s">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A35" s="7" t="s">
         <v>126</v>
       </c>
-      <c r="B35" s="3" t="s">
+      <c r="B35" s="7" t="s">
         <v>127</v>
       </c>
-      <c r="C35" s="3" t="s">
+      <c r="C35" s="7" t="s">
         <v>128</v>
       </c>
-      <c r="D35" s="3" t="s">
+      <c r="D35" s="7" t="s">
         <v>129</v>
       </c>
-      <c r="E35" s="4">
-        <v>0.9999999999</v>
-      </c>
-      <c r="F35" s="5">
-        <v>1</v>
-      </c>
-      <c r="G35" s="5">
-        <v>1</v>
-      </c>
-      <c r="H35" s="4">
-        <v>0.8909406807947572</v>
-      </c>
-      <c r="I35" s="4">
-        <v>0.9727351701736893</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="36" customHeight="1" ht="18.75">
-      <c r="A36" s="3" t="s">
+      <c r="E35" s="3">
+        <v>0.99999999989999999</v>
+      </c>
+      <c r="F35" s="4">
+        <v>1</v>
+      </c>
+      <c r="G35" s="4">
+        <v>1</v>
+      </c>
+      <c r="H35" s="3">
+        <v>0.89094068079475719</v>
+      </c>
+      <c r="I35" s="3">
+        <v>0.97273517017368927</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A36" s="7" t="s">
         <v>130</v>
       </c>
-      <c r="B36" s="3" t="s">
+      <c r="B36" s="7" t="s">
         <v>131</v>
       </c>
-      <c r="C36" s="3" t="s">
+      <c r="C36" s="7" t="s">
         <v>132</v>
       </c>
-      <c r="D36" s="3" t="s">
+      <c r="D36" s="7" t="s">
         <v>133</v>
       </c>
-      <c r="E36" s="4">
-        <v>0.9999999999</v>
-      </c>
-      <c r="F36" s="5">
-        <v>1</v>
-      </c>
-      <c r="G36" s="5">
-        <v>1</v>
-      </c>
-      <c r="H36" s="4">
-        <v>0.8818732272834952</v>
-      </c>
-      <c r="I36" s="4">
-        <v>0.9704683067958738</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="37" customHeight="1" ht="18.75">
-      <c r="A37" s="3" t="s">
+      <c r="E36" s="3">
+        <v>0.99999999989999999</v>
+      </c>
+      <c r="F36" s="4">
+        <v>1</v>
+      </c>
+      <c r="G36" s="4">
+        <v>1</v>
+      </c>
+      <c r="H36" s="3">
+        <v>0.88187322728349515</v>
+      </c>
+      <c r="I36" s="3">
+        <v>0.97046830679587381</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A37" s="7" t="s">
         <v>134</v>
       </c>
-      <c r="B37" s="3" t="s">
+      <c r="B37" s="7" t="s">
         <v>135</v>
       </c>
-      <c r="C37" s="3" t="s">
+      <c r="C37" s="7" t="s">
         <v>136</v>
       </c>
-      <c r="D37" s="3" t="s">
+      <c r="D37" s="7" t="s">
         <v>137</v>
       </c>
-      <c r="E37" s="4">
-        <v>0.9999999999</v>
-      </c>
-      <c r="F37" s="5">
-        <v>1</v>
-      </c>
-      <c r="G37" s="5">
-        <v>1</v>
-      </c>
-      <c r="H37" s="4">
-        <v>0.8725494772130221</v>
-      </c>
-      <c r="I37" s="4">
-        <v>0.9681373692782556</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="38" customHeight="1" ht="18.75">
-      <c r="A38" s="3" t="s">
+      <c r="E37" s="3">
+        <v>0.99999999989999999</v>
+      </c>
+      <c r="F37" s="4">
+        <v>1</v>
+      </c>
+      <c r="G37" s="4">
+        <v>1</v>
+      </c>
+      <c r="H37" s="3">
+        <v>0.87254947721302212</v>
+      </c>
+      <c r="I37" s="3">
+        <v>0.96813736927825556</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A38" s="7" t="s">
         <v>138</v>
       </c>
-      <c r="B38" s="3" t="s">
+      <c r="B38" s="7" t="s">
         <v>139</v>
       </c>
-      <c r="C38" s="3" t="s">
+      <c r="C38" s="7" t="s">
         <v>140</v>
       </c>
-      <c r="D38" s="3" t="s">
+      <c r="D38" s="7" t="s">
         <v>141</v>
       </c>
-      <c r="E38" s="4">
-        <v>0.9999999999</v>
-      </c>
-      <c r="F38" s="5">
-        <v>1</v>
-      </c>
-      <c r="G38" s="5">
-        <v>1</v>
-      </c>
-      <c r="H38" s="4">
+      <c r="E38" s="3">
+        <v>0.99999999989999999</v>
+      </c>
+      <c r="F38" s="4">
+        <v>1</v>
+      </c>
+      <c r="G38" s="4">
+        <v>1</v>
+      </c>
+      <c r="H38" s="3">
         <v>0.8928525679181486</v>
       </c>
-      <c r="I38" s="4">
-        <v>0.9732131419545371</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="39" customHeight="1" ht="18.75">
-      <c r="A39" s="3" t="s">
+      <c r="I38" s="3">
+        <v>0.97321314195453712</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A39" s="7" t="s">
         <v>142</v>
       </c>
-      <c r="B39" s="3" t="s">
+      <c r="B39" s="7" t="s">
         <v>143</v>
       </c>
-      <c r="C39" s="3" t="s">
+      <c r="C39" s="7" t="s">
         <v>144</v>
       </c>
-      <c r="D39" s="3" t="s">
+      <c r="D39" s="7" t="s">
         <v>145</v>
       </c>
-      <c r="E39" s="4">
-        <v>0.9999999999</v>
-      </c>
-      <c r="F39" s="5">
-        <v>1</v>
-      </c>
-      <c r="G39" s="5">
-        <v>1</v>
-      </c>
-      <c r="H39" s="4">
-        <v>0.9517001020286783</v>
-      </c>
-      <c r="I39" s="4">
-        <v>0.9879250254821695</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="40" customHeight="1" ht="18.75">
-      <c r="A40" s="3" t="s">
+      <c r="E39" s="3">
+        <v>0.99999999989999999</v>
+      </c>
+      <c r="F39" s="4">
+        <v>1</v>
+      </c>
+      <c r="G39" s="4">
+        <v>1</v>
+      </c>
+      <c r="H39" s="3">
+        <v>0.95170010202867827</v>
+      </c>
+      <c r="I39" s="3">
+        <v>0.98792502548216954</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A40" s="7" t="s">
         <v>146</v>
       </c>
-      <c r="B40" s="3" t="s">
+      <c r="B40" s="7" t="s">
         <v>147</v>
       </c>
-      <c r="C40" s="3" t="s">
+      <c r="C40" s="7" t="s">
         <v>148</v>
       </c>
-      <c r="D40" s="3" t="s">
+      <c r="D40" s="7" t="s">
         <v>149</v>
       </c>
-      <c r="E40" s="4">
-        <v>0.9999999999</v>
-      </c>
-      <c r="F40" s="5">
-        <v>1</v>
-      </c>
-      <c r="G40" s="5">
-        <v>1</v>
-      </c>
-      <c r="H40" s="4">
-        <v>0.8879047968593872</v>
-      </c>
-      <c r="I40" s="4">
-        <v>0.9719761991898468</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="41" customHeight="1" ht="18.75">
-      <c r="A41" s="3" t="s">
+      <c r="E40" s="3">
+        <v>0.99999999989999999</v>
+      </c>
+      <c r="F40" s="4">
+        <v>1</v>
+      </c>
+      <c r="G40" s="4">
+        <v>1</v>
+      </c>
+      <c r="H40" s="3">
+        <v>0.88790479685938717</v>
+      </c>
+      <c r="I40" s="3">
+        <v>0.97197619918984679</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A41" s="7" t="s">
         <v>150</v>
       </c>
-      <c r="B41" s="3" t="s">
+      <c r="B41" s="7" t="s">
         <v>151</v>
       </c>
-      <c r="C41" s="3" t="s">
+      <c r="C41" s="7" t="s">
         <v>152</v>
       </c>
-      <c r="D41" s="3" t="s">
+      <c r="D41" s="7" t="s">
         <v>153</v>
       </c>
-      <c r="E41" s="4">
-        <v>0.9999999999</v>
-      </c>
-      <c r="F41" s="5">
-        <v>1</v>
-      </c>
-      <c r="G41" s="5">
-        <v>1</v>
-      </c>
-      <c r="H41" s="4">
-        <v>0.9571896233942686</v>
-      </c>
-      <c r="I41" s="4">
-        <v>0.9892974058235672</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="42" customHeight="1" ht="18.75">
-      <c r="A42" s="3" t="s">
+      <c r="E41" s="3">
+        <v>0.99999999989999999</v>
+      </c>
+      <c r="F41" s="4">
+        <v>1</v>
+      </c>
+      <c r="G41" s="4">
+        <v>1</v>
+      </c>
+      <c r="H41" s="3">
+        <v>0.95718962339426861</v>
+      </c>
+      <c r="I41" s="3">
+        <v>0.98929740582356718</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A42" s="7" t="s">
         <v>154</v>
       </c>
-      <c r="B42" s="3" t="s">
+      <c r="B42" s="7" t="s">
         <v>155</v>
       </c>
-      <c r="C42" s="3" t="s">
+      <c r="C42" s="7" t="s">
         <v>156</v>
       </c>
-      <c r="D42" s="3" t="s">
+      <c r="D42" s="7" t="s">
         <v>156</v>
       </c>
-      <c r="E42" s="4">
-        <v>0.9999999999</v>
-      </c>
-      <c r="F42" s="5">
-        <v>1</v>
-      </c>
-      <c r="G42" s="5">
-        <v>1</v>
-      </c>
-      <c r="H42" s="4">
+      <c r="E42" s="3">
+        <v>0.99999999989999999</v>
+      </c>
+      <c r="F42" s="4">
+        <v>1</v>
+      </c>
+      <c r="G42" s="4">
+        <v>1</v>
+      </c>
+      <c r="H42" s="3">
         <v>0.9670435166112834</v>
       </c>
-      <c r="I42" s="4">
-        <v>0.9917608791278208</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="43" customHeight="1" ht="18.75">
-      <c r="A43" s="3" t="s">
+      <c r="I42" s="3">
+        <v>0.99176087912782085</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A43" s="7" t="s">
         <v>157</v>
       </c>
-      <c r="B43" s="3" t="s">
+      <c r="B43" s="7" t="s">
         <v>158</v>
       </c>
-      <c r="C43" s="3" t="s">
+      <c r="C43" s="7" t="s">
         <v>159</v>
       </c>
-      <c r="D43" s="3" t="s">
+      <c r="D43" s="7" t="s">
         <v>159</v>
       </c>
-      <c r="E43" s="4">
-        <v>0.9999999999</v>
-      </c>
-      <c r="F43" s="5">
-        <v>1</v>
-      </c>
-      <c r="G43" s="5">
-        <v>1</v>
-      </c>
-      <c r="H43" s="4">
-        <v>0.9544831895884521</v>
-      </c>
-      <c r="I43" s="4">
-        <v>0.9886207973721131</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="44" customHeight="1" ht="18.75">
-      <c r="A44" s="3" t="s">
+      <c r="E43" s="3">
+        <v>0.99999999989999999</v>
+      </c>
+      <c r="F43" s="4">
+        <v>1</v>
+      </c>
+      <c r="G43" s="4">
+        <v>1</v>
+      </c>
+      <c r="H43" s="3">
+        <v>0.95448318958845213</v>
+      </c>
+      <c r="I43" s="3">
+        <v>0.98862079737211306</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A44" s="7" t="s">
         <v>160</v>
       </c>
-      <c r="B44" s="3" t="s">
+      <c r="B44" s="7" t="s">
         <v>161</v>
       </c>
-      <c r="C44" s="3" t="s">
+      <c r="C44" s="7" t="s">
         <v>162</v>
       </c>
-      <c r="D44" s="3" t="s">
+      <c r="D44" s="7" t="s">
         <v>163</v>
       </c>
-      <c r="E44" s="4">
-        <v>0.9999999999</v>
-      </c>
-      <c r="F44" s="5">
-        <v>1</v>
-      </c>
-      <c r="G44" s="5">
-        <v>1</v>
-      </c>
-      <c r="H44" s="4">
-        <v>0.9210039547348612</v>
-      </c>
-      <c r="I44" s="4">
-        <v>0.9802509886587153</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="45" customHeight="1" ht="18.75">
-      <c r="A45" s="3" t="s">
+      <c r="E44" s="3">
+        <v>0.99999999989999999</v>
+      </c>
+      <c r="F44" s="4">
+        <v>1</v>
+      </c>
+      <c r="G44" s="4">
+        <v>1</v>
+      </c>
+      <c r="H44" s="3">
+        <v>0.92100395473486119</v>
+      </c>
+      <c r="I44" s="3">
+        <v>0.98025098865871529</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A45" s="7" t="s">
         <v>164</v>
       </c>
-      <c r="B45" s="3" t="s">
+      <c r="B45" s="7" t="s">
         <v>165</v>
       </c>
-      <c r="C45" s="3" t="s">
+      <c r="C45" s="7" t="s">
         <v>166</v>
       </c>
-      <c r="D45" s="3" t="s">
+      <c r="D45" s="7" t="s">
         <v>167</v>
       </c>
-      <c r="E45" s="4">
-        <v>0.9999999999</v>
-      </c>
-      <c r="F45" s="5">
-        <v>1</v>
-      </c>
-      <c r="G45" s="5">
-        <v>1</v>
-      </c>
-      <c r="H45" s="4">
-        <v>0.91764199504826</v>
-      </c>
-      <c r="I45" s="4">
-        <v>0.979410498737065</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="46" customHeight="1" ht="18.75">
-      <c r="A46" s="3" t="s">
+      <c r="E45" s="3">
+        <v>0.99999999989999999</v>
+      </c>
+      <c r="F45" s="4">
+        <v>1</v>
+      </c>
+      <c r="G45" s="4">
+        <v>1</v>
+      </c>
+      <c r="H45" s="3">
+        <v>0.91764199504826005</v>
+      </c>
+      <c r="I45" s="3">
+        <v>0.97941049873706498</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A46" s="7" t="s">
         <v>168</v>
       </c>
-      <c r="B46" s="3" t="s">
+      <c r="B46" s="7" t="s">
         <v>169</v>
       </c>
-      <c r="C46" s="3" t="s">
+      <c r="C46" s="7" t="s">
         <v>170</v>
       </c>
-      <c r="D46" s="3" t="s">
+      <c r="D46" s="7" t="s">
         <v>170</v>
       </c>
-      <c r="E46" s="4">
-        <v>0.9999999999</v>
-      </c>
-      <c r="F46" s="5">
-        <v>1</v>
-      </c>
-      <c r="G46" s="5">
-        <v>1</v>
-      </c>
-      <c r="H46" s="4">
-        <v>0.9526155075560143</v>
-      </c>
-      <c r="I46" s="4">
-        <v>0.9881538768640036</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="47" customHeight="1" ht="18.75">
-      <c r="A47" s="3" t="s">
+      <c r="E46" s="3">
+        <v>0.99999999989999999</v>
+      </c>
+      <c r="F46" s="4">
+        <v>1</v>
+      </c>
+      <c r="G46" s="4">
+        <v>1</v>
+      </c>
+      <c r="H46" s="3">
+        <v>0.95261550755601432</v>
+      </c>
+      <c r="I46" s="3">
+        <v>0.98815387686400358</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A47" s="7" t="s">
         <v>171</v>
       </c>
-      <c r="B47" s="3" t="s">
+      <c r="B47" s="7" t="s">
         <v>172</v>
       </c>
-      <c r="C47" s="3" t="s">
+      <c r="C47" s="7" t="s">
         <v>173</v>
       </c>
-      <c r="D47" s="3" t="s">
+      <c r="D47" s="7" t="s">
         <v>174</v>
       </c>
-      <c r="E47" s="4">
-        <v>0.9999999999</v>
-      </c>
-      <c r="F47" s="5">
-        <v>1</v>
-      </c>
-      <c r="G47" s="4">
+      <c r="E47" s="3">
+        <v>0.99999999989999999</v>
+      </c>
+      <c r="F47" s="4">
+        <v>1</v>
+      </c>
+      <c r="G47" s="3">
         <v>0.5</v>
       </c>
-      <c r="H47" s="4">
-        <v>0.7529391519278427</v>
-      </c>
-      <c r="I47" s="4">
-        <v>0.8132347879569607</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="48" customHeight="1" ht="18.75">
-      <c r="A48" s="3" t="s">
+      <c r="H47" s="3">
+        <v>0.75293915192784266</v>
+      </c>
+      <c r="I47" s="3">
+        <v>0.81323478795696069</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A48" s="7" t="s">
         <v>175</v>
       </c>
-      <c r="B48" s="3" t="s">
+      <c r="B48" s="7" t="s">
         <v>176</v>
       </c>
-      <c r="C48" s="3" t="s">
+      <c r="C48" s="7" t="s">
         <v>177</v>
       </c>
-      <c r="D48" s="3" t="s">
+      <c r="D48" s="7" t="s">
         <v>178</v>
       </c>
-      <c r="E48" s="4">
-        <v>0.9999999999</v>
-      </c>
-      <c r="F48" s="5">
-        <v>1</v>
-      </c>
-      <c r="G48" s="5">
-        <v>1</v>
-      </c>
-      <c r="H48" s="4">
-        <v>0.863693721760328</v>
-      </c>
-      <c r="I48" s="4">
+      <c r="E48" s="3">
+        <v>0.99999999989999999</v>
+      </c>
+      <c r="F48" s="4">
+        <v>1</v>
+      </c>
+      <c r="G48" s="4">
+        <v>1</v>
+      </c>
+      <c r="H48" s="3">
+        <v>0.86369372176032799</v>
+      </c>
+      <c r="I48" s="3">
         <v>0.965923430415082</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="49" customHeight="1" ht="18.75">
-      <c r="A49" s="3" t="s">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A49" s="7" t="s">
         <v>179</v>
       </c>
-      <c r="B49" s="3" t="s">
+      <c r="B49" s="7" t="s">
         <v>180</v>
       </c>
-      <c r="C49" s="3" t="s">
+      <c r="C49" s="7" t="s">
         <v>181</v>
       </c>
-      <c r="D49" s="3" t="s">
+      <c r="D49" s="7" t="s">
         <v>182</v>
       </c>
-      <c r="E49" s="5">
+      <c r="E49" s="4">
         <v>0</v>
       </c>
-      <c r="F49" s="4">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G49" s="5">
-        <v>1</v>
-      </c>
-      <c r="H49" s="4">
-        <v>0.8569162988438133</v>
-      </c>
-      <c r="I49" s="4">
-        <v>0.5475624080442867</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="50" customHeight="1" ht="18.75">
-      <c r="A50" s="3" t="s">
+      <c r="F49" s="3">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="G49" s="4">
+        <v>1</v>
+      </c>
+      <c r="H49" s="3">
+        <v>0.85691629884381326</v>
+      </c>
+      <c r="I49" s="3">
+        <v>0.54756240804428669</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A50" s="7" t="s">
         <v>183</v>
       </c>
-      <c r="B50" s="3" t="s">
+      <c r="B50" s="7" t="s">
         <v>184</v>
       </c>
-      <c r="C50" s="3" t="s">
+      <c r="C50" s="7" t="s">
         <v>185</v>
       </c>
-      <c r="D50" s="3" t="s">
+      <c r="D50" s="7" t="s">
         <v>185</v>
       </c>
-      <c r="E50" s="4">
-        <v>0.9999999999</v>
-      </c>
-      <c r="F50" s="4">
+      <c r="E50" s="3">
+        <v>0.99999999989999999</v>
+      </c>
+      <c r="F50" s="3">
         <v>0.8</v>
       </c>
-      <c r="G50" s="5">
-        <v>1</v>
-      </c>
-      <c r="H50" s="4">
+      <c r="G50" s="4">
+        <v>1</v>
+      </c>
+      <c r="H50" s="3">
         <v>0.8366722865303271</v>
       </c>
-      <c r="I50" s="4">
-        <v>0.9091680716075817</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="51" customHeight="1" ht="18.75">
-      <c r="A51" s="3" t="s">
+      <c r="I50" s="3">
+        <v>0.90916807160758173</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A51" s="7" t="s">
         <v>186</v>
       </c>
-      <c r="B51" s="3" t="s">
+      <c r="B51" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="C51" s="3" t="s">
+      <c r="C51" s="7" t="s">
         <v>187</v>
       </c>
-      <c r="D51" s="3" t="s">
+      <c r="D51" s="7" t="s">
         <v>187</v>
       </c>
-      <c r="E51" s="4">
-        <v>0.9999999999</v>
-      </c>
-      <c r="F51" s="4">
+      <c r="E51" s="3">
+        <v>0.99999999989999999</v>
+      </c>
+      <c r="F51" s="3">
         <v>0.5</v>
       </c>
-      <c r="G51" s="5">
-        <v>1</v>
-      </c>
-      <c r="H51" s="5">
+      <c r="G51" s="4">
+        <v>1</v>
+      </c>
+      <c r="H51" s="4">
         <v>0</v>
       </c>
-      <c r="I51" s="4">
+      <c r="I51" s="3">
         <v>0.624999999975</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="52" customHeight="1" ht="18.75">
-      <c r="A52" s="3"/>
-      <c r="B52" s="3"/>
-      <c r="C52" s="3"/>
-      <c r="D52" s="3"/>
-      <c r="E52" s="6"/>
-      <c r="F52" s="6"/>
-      <c r="G52" s="6"/>
-      <c r="H52" s="6"/>
-      <c r="I52" s="6"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="53" customHeight="1" ht="18.75">
-      <c r="A53" s="3" t="s">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A53" s="6" t="s">
         <v>188</v>
       </c>
-      <c r="B53" s="3"/>
-      <c r="C53" s="3"/>
-      <c r="D53" s="3"/>
-      <c r="E53" s="4">
-        <v>0.919999999908</v>
-      </c>
-      <c r="F53" s="4">
-        <v>0.885875541125541</v>
-      </c>
-      <c r="G53" s="4">
-        <v>0.9576470588235294</v>
-      </c>
-      <c r="H53" s="4">
-        <v>0.807087240437148</v>
-      </c>
-      <c r="I53" s="4">
-        <v>0.8926524600735546</v>
+      <c r="B53" s="6"/>
+      <c r="C53" s="6"/>
+      <c r="D53" s="6"/>
+      <c r="E53" s="3">
+        <v>0.91999999990799997</v>
+      </c>
+      <c r="F53" s="3">
+        <v>0.88587554112554101</v>
+      </c>
+      <c r="G53" s="3">
+        <v>0.95764705882352941</v>
+      </c>
+      <c r="H53" s="3">
+        <v>0.80708724043714797</v>
+      </c>
+      <c r="I53" s="3">
+        <v>0.89265246007355459</v>
       </c>
     </row>
   </sheetData>
